--- a/data/trans_orig/IP3108-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97C8C2B-B70D-430F-9483-F7E4D13E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC34FAC-FFCD-4EFC-A4B1-34D805BB265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5263A534-3B45-4557-8A29-31A4A5D398D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B0482DF-E3E1-4B6D-BEEF-DF1C3FF702B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="413">
   <si>
     <t>Menores según la frecuencia de tomar leche en 2007 (Tasa respuesta: 92,63%)</t>
   </si>
@@ -112,1165 +112,1171 @@
     <t>2,44%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2016 (Tasa respuesta: 90,55%)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>3,01%</t>
+    <t>3,6%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>3,13%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B295B-FFC0-4716-B81F-96F0905C5904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE9F71-018D-4FA6-83DD-561137DC6E0E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2255,13 +2261,13 @@
         <v>602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2270,13 +2276,13 @@
         <v>2809</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2285,13 +2291,13 @@
         <v>3411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2312,13 @@
         <v>70368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -2321,13 +2327,13 @@
         <v>73296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -2336,13 +2342,13 @@
         <v>143664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,7 +2404,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2410,10 +2416,10 @@
         <v>6598</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>68</v>
@@ -2425,13 +2431,13 @@
         <v>5730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2440,13 +2446,13 @@
         <v>12328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2467,13 @@
         <v>5418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2476,13 +2482,13 @@
         <v>6744</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2491,13 +2497,13 @@
         <v>12162</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2518,13 @@
         <v>15899</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -2527,13 +2533,13 @@
         <v>14257</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -2542,13 +2548,13 @@
         <v>30156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2569,13 @@
         <v>6673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2578,13 +2584,13 @@
         <v>10544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2593,13 +2599,13 @@
         <v>17218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2620,13 @@
         <v>412463</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>527</v>
@@ -2629,13 +2635,13 @@
         <v>350643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>1150</v>
@@ -2644,13 +2650,13 @@
         <v>763106</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2712,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2724,13 @@
         <v>2026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2733,13 +2739,13 @@
         <v>1997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2748,13 +2754,13 @@
         <v>4024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2775,13 @@
         <v>2528</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2784,13 +2790,13 @@
         <v>1381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2799,13 +2805,13 @@
         <v>3909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2826,13 @@
         <v>2786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2835,13 +2841,13 @@
         <v>3489</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2850,13 +2856,13 @@
         <v>6275</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2877,13 @@
         <v>2728</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2886,13 +2892,13 @@
         <v>2691</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2901,13 +2907,13 @@
         <v>5418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2928,13 @@
         <v>133458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>215</v>
@@ -2937,13 +2943,13 @@
         <v>147957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>414</v>
@@ -2952,13 +2958,13 @@
         <v>281415</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3032,13 @@
         <v>10584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -3041,13 +3047,13 @@
         <v>10829</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -3056,13 +3062,13 @@
         <v>21413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3083,13 @@
         <v>11371</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3092,13 +3098,13 @@
         <v>9376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3107,13 +3113,13 @@
         <v>20746</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>22581</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -3143,13 +3149,13 @@
         <v>22155</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -3158,13 +3164,13 @@
         <v>44737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>10003</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -3194,13 +3200,13 @@
         <v>16044</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="M31" s="7">
         <v>39</v>
@@ -3209,13 +3215,13 @@
         <v>26047</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>617015</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7">
         <v>852</v>
@@ -3245,28 +3251,28 @@
         <v>571897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
         <v>1780</v>
       </c>
       <c r="N32" s="7">
-        <v>1188911</v>
+        <v>1188912</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3314,7 @@
         <v>1949</v>
       </c>
       <c r="N33" s="7">
-        <v>1301854</v>
+        <v>1301855</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>21</v>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFA4A98-60C6-45A0-8FD7-11FE9F1A361A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE18F2F0-D7CD-41FB-AEFA-8FE919625BDF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,13 +3768,13 @@
         <v>2535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3777,13 +3783,13 @@
         <v>3097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3792,13 +3798,13 @@
         <v>5632</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3819,13 @@
         <v>647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3828,13 +3834,13 @@
         <v>2739</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3843,13 +3849,13 @@
         <v>3387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3870,13 @@
         <v>2076</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -3879,13 +3885,13 @@
         <v>4715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3894,13 +3900,13 @@
         <v>6791</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>2006</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3945,13 +3951,13 @@
         <v>2006</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3972,13 @@
         <v>76693</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -3981,13 +3987,13 @@
         <v>75363</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>217</v>
@@ -3996,13 +4002,13 @@
         <v>152056</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4064,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4070,13 +4076,13 @@
         <v>5192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4085,13 +4091,13 @@
         <v>5085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4100,13 +4106,13 @@
         <v>10278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4127,13 @@
         <v>4152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4136,13 +4142,13 @@
         <v>6636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4151,13 +4157,13 @@
         <v>10788</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,7 +4184,7 @@
         <v>226</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -4190,10 +4196,10 @@
         <v>227</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4202,13 +4208,13 @@
         <v>23199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4229,13 @@
         <v>14277</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4238,13 +4244,13 @@
         <v>12139</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -4253,13 +4259,13 @@
         <v>26416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4280,13 @@
         <v>413387</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>538</v>
@@ -4289,13 +4295,13 @@
         <v>371383</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>1132</v>
@@ -4304,13 +4310,13 @@
         <v>784771</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4372,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4378,13 +4384,13 @@
         <v>2637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4393,13 +4399,13 @@
         <v>3323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4408,13 +4414,13 @@
         <v>5959</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4435,13 @@
         <v>777</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -4447,10 +4453,10 @@
         <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -4459,13 +4465,13 @@
         <v>2994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4486,13 @@
         <v>646</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4495,13 +4501,13 @@
         <v>1886</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4510,13 +4516,13 @@
         <v>2532</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4537,13 @@
         <v>1451</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4546,13 +4552,13 @@
         <v>2144</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4561,13 +4567,13 @@
         <v>3594</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4588,13 @@
         <v>148136</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>200</v>
@@ -4597,13 +4603,13 @@
         <v>141264</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>410</v>
@@ -4612,13 +4618,13 @@
         <v>289400</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4692,13 @@
         <v>10364</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4701,13 +4707,13 @@
         <v>11505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -4716,13 +4722,13 @@
         <v>21869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4743,13 @@
         <v>5577</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -4752,13 +4758,13 @@
         <v>11592</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -4767,13 +4773,13 @@
         <v>17169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4794,13 @@
         <v>12828</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -4803,13 +4809,13 @@
         <v>19694</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -4821,10 +4827,10 @@
         <v>23</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,10 +4845,10 @@
         <v>15728</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>289</v>
@@ -4857,10 +4863,10 @@
         <v>290</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -4869,13 +4875,13 @@
         <v>32017</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4896,13 @@
         <v>638858</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H32" s="7">
         <v>848</v>
@@ -4905,13 +4911,13 @@
         <v>588010</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="M32" s="7">
         <v>1760</v>
@@ -4920,13 +4926,13 @@
         <v>1226868</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,7 +4988,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5002,7 +5008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858977F5-ECA4-4093-8858-8CBA27E9057E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96851733-82C3-4AFE-A978-E4D82801406A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5019,7 +5025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5398,13 +5404,13 @@
         <v>558</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5413,7 +5419,7 @@
         <v>1213</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -5431,7 +5437,7 @@
         <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>306</v>
@@ -5455,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5464,13 +5470,13 @@
         <v>836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5479,13 +5485,13 @@
         <v>836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5506,13 @@
         <v>2030</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5515,13 +5521,13 @@
         <v>1794</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5530,13 +5536,13 @@
         <v>3824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5557,13 @@
         <v>2471</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5566,13 +5572,13 @@
         <v>1426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5581,13 +5587,13 @@
         <v>3897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5608,13 @@
         <v>61471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5617,13 +5623,13 @@
         <v>48829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -5632,13 +5638,13 @@
         <v>110301</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5706,13 +5712,13 @@
         <v>1997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5721,13 +5727,13 @@
         <v>5514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5736,13 +5742,13 @@
         <v>7511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5763,13 @@
         <v>2296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5772,13 +5778,13 @@
         <v>2481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5787,13 +5793,13 @@
         <v>4777</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5814,13 @@
         <v>10795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5823,13 +5829,13 @@
         <v>10138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5838,13 +5844,13 @@
         <v>20933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5865,13 @@
         <v>21693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5874,13 +5880,13 @@
         <v>17243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5889,13 +5895,13 @@
         <v>38937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5916,13 @@
         <v>415087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
         <v>596</v>
@@ -5925,13 +5931,13 @@
         <v>396032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
         <v>1186</v>
@@ -5940,13 +5946,13 @@
         <v>811119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,7 +6008,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6014,13 +6020,13 @@
         <v>1428</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6029,13 +6035,13 @@
         <v>1376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6044,13 +6050,13 @@
         <v>2804</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6071,13 @@
         <v>1439</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -6080,13 +6086,13 @@
         <v>1278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -6095,13 +6101,13 @@
         <v>2717</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6122,13 @@
         <v>1334</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6131,13 +6137,13 @@
         <v>3927</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -6146,13 +6152,13 @@
         <v>5261</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6173,13 @@
         <v>5502</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6182,13 +6188,13 @@
         <v>6180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6197,13 +6203,13 @@
         <v>11682</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6224,13 @@
         <v>151420</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>375</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -6233,13 +6239,13 @@
         <v>139883</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
@@ -6248,13 +6254,13 @@
         <v>291303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6328,13 @@
         <v>3983</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6337,13 +6343,13 @@
         <v>8103</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -6352,13 +6358,13 @@
         <v>12087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6379,13 @@
         <v>3735</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6388,13 +6394,13 @@
         <v>4595</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6403,13 +6409,13 @@
         <v>8330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>391</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6430,13 @@
         <v>14159</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6439,13 +6445,13 @@
         <v>15858</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6454,13 +6460,13 @@
         <v>30017</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>394</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6481,13 @@
         <v>29667</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -6490,13 +6496,13 @@
         <v>24849</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -6505,13 +6511,13 @@
         <v>54516</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>401</v>
+        <v>287</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6532,13 @@
         <v>627978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H32" s="7">
         <v>878</v>
@@ -6541,13 +6547,13 @@
         <v>584744</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M32" s="7">
         <v>1775</v>
@@ -6556,13 +6562,13 @@
         <v>1212723</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6624,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
